--- a/Code/Results/Cases/Case_6_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_55/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>26.4314635397089</v>
       </c>
       <c r="C2">
-        <v>16.49887617508652</v>
+        <v>16.49887617508655</v>
       </c>
       <c r="D2">
-        <v>5.476213471232206</v>
+        <v>5.476213471232312</v>
       </c>
       <c r="E2">
-        <v>6.567557168931095</v>
+        <v>6.567557168931093</v>
       </c>
       <c r="F2">
-        <v>40.5322672546022</v>
+        <v>40.53226725460225</v>
       </c>
       <c r="G2">
-        <v>2.089605955394365</v>
+        <v>2.089605955394498</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.157412325861098</v>
+        <v>6.157412325861127</v>
       </c>
       <c r="M2">
-        <v>14.84405541289495</v>
+        <v>14.84405541289497</v>
       </c>
       <c r="N2">
-        <v>14.64326471548362</v>
+        <v>14.64326471548364</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.74637875345757</v>
+        <v>24.74637875345753</v>
       </c>
       <c r="C3">
-        <v>15.32829315169676</v>
+        <v>15.32829315169669</v>
       </c>
       <c r="D3">
-        <v>5.542254686066956</v>
+        <v>5.542254686067123</v>
       </c>
       <c r="E3">
-        <v>6.491028273770658</v>
+        <v>6.491028273770462</v>
       </c>
       <c r="F3">
-        <v>38.74596012247693</v>
+        <v>38.74596012247701</v>
       </c>
       <c r="G3">
-        <v>2.102314676277003</v>
+        <v>2.102314676276868</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.085496350776462</v>
+        <v>6.085496350776407</v>
       </c>
       <c r="M3">
-        <v>14.19001634789075</v>
+        <v>14.19001634789074</v>
       </c>
       <c r="N3">
-        <v>14.8293335476948</v>
+        <v>14.82933354769492</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>23.67791248673979</v>
       </c>
       <c r="C4">
-        <v>14.57512838326416</v>
+        <v>14.57512838326396</v>
       </c>
       <c r="D4">
-        <v>5.585779463962061</v>
+        <v>5.585779463962186</v>
       </c>
       <c r="E4">
-        <v>6.444301074834197</v>
+        <v>6.444301074834126</v>
       </c>
       <c r="F4">
-        <v>37.65502762941365</v>
+        <v>37.65502762941357</v>
       </c>
       <c r="G4">
-        <v>2.110272574839023</v>
+        <v>2.110272574839158</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.044732475346335</v>
+        <v>6.044732475346389</v>
       </c>
       <c r="M4">
-        <v>13.7866984584184</v>
+        <v>13.78669845841839</v>
       </c>
       <c r="N4">
-        <v>14.94858382217171</v>
+        <v>14.94858382217162</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.23417817522076</v>
+        <v>23.23417817522074</v>
       </c>
       <c r="C5">
-        <v>14.25937025011882</v>
+        <v>14.25937025011875</v>
       </c>
       <c r="D5">
-        <v>5.60422159093439</v>
+        <v>5.60422159093411</v>
       </c>
       <c r="E5">
-        <v>6.425298367255014</v>
+        <v>6.425298367255082</v>
       </c>
       <c r="F5">
         <v>37.21224549964167</v>
       </c>
       <c r="G5">
-        <v>2.113558095331101</v>
+        <v>2.113558095331102</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.028953207004687</v>
+        <v>6.028953207004715</v>
       </c>
       <c r="M5">
-        <v>13.6220663162768</v>
+        <v>13.62206631627675</v>
       </c>
       <c r="N5">
-        <v>14.9983955369117</v>
+        <v>14.99839553691166</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.16000081207943</v>
+        <v>23.16000081207944</v>
       </c>
       <c r="C6">
-        <v>14.20640007409283</v>
+        <v>14.20640007409267</v>
       </c>
       <c r="D6">
-        <v>5.607325359710902</v>
+        <v>5.607325359711132</v>
       </c>
       <c r="E6">
         <v>6.422144609858618</v>
       </c>
       <c r="F6">
-        <v>37.13883997705642</v>
+        <v>37.13883997705659</v>
       </c>
       <c r="G6">
-        <v>2.114106329616333</v>
+        <v>2.114106329616204</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.026382741512804</v>
+        <v>6.026382741512911</v>
       </c>
       <c r="M6">
-        <v>13.59471785438078</v>
+        <v>13.59471785438087</v>
       </c>
       <c r="N6">
-        <v>15.00673909847218</v>
+        <v>15.00673909847231</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.6719615299799</v>
+        <v>23.67196152997985</v>
       </c>
       <c r="C7">
-        <v>14.57090597024972</v>
+        <v>14.57090597024966</v>
       </c>
       <c r="D7">
-        <v>5.586025376875197</v>
+        <v>5.586025376875085</v>
       </c>
       <c r="E7">
-        <v>6.444044673042759</v>
+        <v>6.444044673042891</v>
       </c>
       <c r="F7">
-        <v>37.649048436586</v>
+        <v>37.64904843658579</v>
       </c>
       <c r="G7">
         <v>2.110316707307228</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.044516327684736</v>
+        <v>6.044516327684692</v>
       </c>
       <c r="M7">
-        <v>13.78447905762779</v>
+        <v>13.78447905762776</v>
       </c>
       <c r="N7">
-        <v>14.9492507260987</v>
+        <v>14.94925072609855</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.85754029401533</v>
+        <v>25.85754029401528</v>
       </c>
       <c r="C8">
-        <v>16.1022890712364</v>
+        <v>16.1022890712366</v>
       </c>
       <c r="D8">
-        <v>5.498339361722005</v>
+        <v>5.498339361721767</v>
       </c>
       <c r="E8">
-        <v>6.541098499594254</v>
+        <v>6.541098499594253</v>
       </c>
       <c r="F8">
-        <v>39.91528759281702</v>
+        <v>39.91528759281693</v>
       </c>
       <c r="G8">
-        <v>2.093958158892399</v>
+        <v>2.093958158892532</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.131898790032434</v>
+        <v>6.131898790032348</v>
       </c>
       <c r="M8">
-        <v>14.61898790553871</v>
+        <v>14.61898790553867</v>
       </c>
       <c r="N8">
-        <v>14.70635541126627</v>
+        <v>14.70635541126621</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.98932242005255</v>
+        <v>29.98932242005259</v>
       </c>
       <c r="C9">
-        <v>18.84130812940725</v>
+        <v>18.84130812940724</v>
       </c>
       <c r="D9">
-        <v>5.352273601170963</v>
+        <v>5.352273601171023</v>
       </c>
       <c r="E9">
-        <v>6.734900065963388</v>
+        <v>6.734900065963386</v>
       </c>
       <c r="F9">
-        <v>44.39756600090088</v>
+        <v>44.39756600090087</v>
       </c>
       <c r="G9">
-        <v>2.062919081887535</v>
+        <v>2.06291908188767</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.331169402914513</v>
+        <v>6.331169402914521</v>
       </c>
       <c r="M9">
         <v>16.23660238995743</v>
       </c>
       <c r="N9">
-        <v>14.27203823953025</v>
+        <v>14.27203823953026</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.96676684198147</v>
+        <v>32.96676684198152</v>
       </c>
       <c r="C10">
-        <v>20.70700036892828</v>
+        <v>20.70700036892835</v>
       </c>
       <c r="D10">
-        <v>5.264566224682373</v>
+        <v>5.264566224682258</v>
       </c>
       <c r="E10">
-        <v>6.881715909322068</v>
+        <v>6.881715909322006</v>
       </c>
       <c r="F10">
-        <v>47.71151207196452</v>
+        <v>47.71151207196456</v>
       </c>
       <c r="G10">
-        <v>2.040451563899382</v>
+        <v>2.040451563899257</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.496121032193774</v>
+        <v>6.496121032193742</v>
       </c>
       <c r="M10">
-        <v>17.55600262988714</v>
+        <v>17.55600262988718</v>
       </c>
       <c r="N10">
-        <v>13.98254257969064</v>
+        <v>13.98254257969059</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.27864483749531</v>
+        <v>34.27864483749541</v>
       </c>
       <c r="C11">
-        <v>21.52762076966686</v>
+        <v>21.52762076966695</v>
       </c>
       <c r="D11">
-        <v>5.230004954034457</v>
+        <v>5.230004954034386</v>
       </c>
       <c r="E11">
-        <v>6.950106743168674</v>
+        <v>6.950106743168807</v>
       </c>
       <c r="F11">
-        <v>49.22590814289036</v>
+        <v>49.22590814289039</v>
       </c>
       <c r="G11">
-        <v>2.030225297155963</v>
+        <v>2.03022529715623</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.575588645772203</v>
+        <v>6.575588645772214</v>
       </c>
       <c r="M11">
-        <v>18.2591449981621</v>
+        <v>18.25914499816214</v>
       </c>
       <c r="N11">
-        <v>13.85844812410356</v>
+        <v>13.85844812410351</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.76976523770682</v>
+        <v>34.76976523770669</v>
       </c>
       <c r="C12">
-        <v>21.83469035770469</v>
+        <v>21.83469035770457</v>
       </c>
       <c r="D12">
-        <v>5.2177972671963</v>
+        <v>5.217797267196325</v>
       </c>
       <c r="E12">
-        <v>6.976300496705025</v>
+        <v>6.976300496705029</v>
       </c>
       <c r="F12">
-        <v>49.80075311205884</v>
+        <v>49.80075311205879</v>
       </c>
       <c r="G12">
-        <v>2.026344337529794</v>
+        <v>2.026344337529659</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.606357766833219</v>
+        <v>6.606357766833234</v>
       </c>
       <c r="M12">
-        <v>18.5220412305135</v>
+        <v>18.52204123051341</v>
       </c>
       <c r="N12">
-        <v>13.81267607257868</v>
+        <v>13.81267607257869</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.66423703873842</v>
+        <v>34.66423703873829</v>
       </c>
       <c r="C13">
-        <v>21.76871488730766</v>
+        <v>21.76871488730736</v>
       </c>
       <c r="D13">
-        <v>5.220385261325942</v>
+        <v>5.220385261325906</v>
       </c>
       <c r="E13">
-        <v>6.970644888135218</v>
+        <v>6.970644888135216</v>
       </c>
       <c r="F13">
-        <v>49.67688062065442</v>
+        <v>49.67688062065429</v>
       </c>
       <c r="G13">
-        <v>2.027180684609055</v>
+        <v>2.027180684609058</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>6.599700294503184</v>
       </c>
       <c r="M13">
-        <v>18.46556680213581</v>
+        <v>18.46556680213573</v>
       </c>
       <c r="N13">
-        <v>13.82247733691839</v>
+        <v>13.82247733691841</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.31916005905732</v>
+        <v>34.31916005905745</v>
       </c>
       <c r="C14">
-        <v>21.55295511157181</v>
+        <v>21.55295511157178</v>
       </c>
       <c r="D14">
-        <v>5.228982267018853</v>
+        <v>5.228982267018862</v>
       </c>
       <c r="E14">
-        <v>6.952255378273757</v>
+        <v>6.952255378273689</v>
       </c>
       <c r="F14">
-        <v>49.2731705319057</v>
+        <v>49.27317053190585</v>
       </c>
       <c r="G14">
-        <v>2.02990622676794</v>
+        <v>2.029906226767946</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.578106231044045</v>
+        <v>6.578106231044034</v>
       </c>
       <c r="M14">
-        <v>18.28083941210849</v>
+        <v>18.28083941210856</v>
       </c>
       <c r="N14">
-        <v>13.85465715875908</v>
+        <v>13.85465715875907</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.10706869359534</v>
+        <v>34.10706869359531</v>
       </c>
       <c r="C15">
-        <v>21.42032810562319</v>
+        <v>21.42032810562309</v>
       </c>
       <c r="D15">
-        <v>5.234366463163856</v>
+        <v>5.234366463163965</v>
       </c>
       <c r="E15">
-        <v>6.94103190838022</v>
+        <v>6.941031908380214</v>
       </c>
       <c r="F15">
-        <v>49.02608027482484</v>
+        <v>49.02608027482477</v>
       </c>
       <c r="G15">
-        <v>2.031574345624055</v>
+        <v>2.03157434562406</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.564968630776777</v>
+        <v>6.564968630776795</v>
       </c>
       <c r="M15">
-        <v>18.16725876134491</v>
+        <v>18.16725876134488</v>
       </c>
       <c r="N15">
         <v>13.87453131455473</v>
@@ -1085,16 +1085,16 @@
         <v>20.65283504377429</v>
       </c>
       <c r="D16">
-        <v>5.266941434275394</v>
+        <v>5.266941434275644</v>
       </c>
       <c r="E16">
-        <v>6.877283968382547</v>
+        <v>6.877283968382413</v>
       </c>
       <c r="F16">
-        <v>47.61271006330472</v>
+        <v>47.61271006330471</v>
       </c>
       <c r="G16">
-        <v>2.041119130260875</v>
+        <v>2.04111913026088</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.491019994502029</v>
+        <v>6.491019994502026</v>
       </c>
       <c r="M16">
-        <v>17.50956329440963</v>
+        <v>17.50956329440965</v>
       </c>
       <c r="N16">
-        <v>13.99081562756423</v>
+        <v>13.99081562756421</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.11697502119063</v>
+        <v>32.11697502119056</v>
       </c>
       <c r="C17">
-        <v>20.17504668825034</v>
+        <v>20.17504668825015</v>
       </c>
       <c r="D17">
-        <v>5.288365869049526</v>
+        <v>5.288365869049555</v>
       </c>
       <c r="E17">
-        <v>6.83863005468113</v>
+        <v>6.838630054681058</v>
       </c>
       <c r="F17">
-        <v>46.74763288418681</v>
+        <v>46.74763288418682</v>
       </c>
       <c r="G17">
-        <v>2.04696798622268</v>
+        <v>2.046967986222684</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.446815503910047</v>
+        <v>6.446815503910037</v>
       </c>
       <c r="M17">
-        <v>17.09978060539741</v>
+        <v>17.09978060539738</v>
       </c>
       <c r="N17">
-        <v>14.06418095996788</v>
+        <v>14.06418095996793</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.67394032435815</v>
+        <v>31.673940324358</v>
       </c>
       <c r="C18">
-        <v>19.897567047667</v>
+        <v>19.89756704766692</v>
       </c>
       <c r="D18">
-        <v>5.301183164681135</v>
+        <v>5.301183164681314</v>
       </c>
       <c r="E18">
-        <v>6.81654375794194</v>
+        <v>6.816543757942012</v>
       </c>
       <c r="F18">
-        <v>46.25067603314668</v>
+        <v>46.2506760331466</v>
       </c>
       <c r="G18">
-        <v>2.050332081312254</v>
+        <v>2.050332081312255</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.421804530468068</v>
+        <v>6.421804530468139</v>
       </c>
       <c r="M18">
-        <v>16.89478898660579</v>
+        <v>16.89478898660577</v>
       </c>
       <c r="N18">
-        <v>14.10708495396585</v>
+        <v>14.10708495396607</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.52322977626892</v>
+        <v>31.5232297762689</v>
       </c>
       <c r="C19">
-        <v>19.80314882144497</v>
+        <v>19.80314882144499</v>
       </c>
       <c r="D19">
-        <v>5.305604715673962</v>
+        <v>5.305604715673837</v>
       </c>
       <c r="E19">
-        <v>6.809089069680148</v>
+        <v>6.809089069680349</v>
       </c>
       <c r="F19">
-        <v>46.08251123221614</v>
+        <v>46.08251123221612</v>
       </c>
       <c r="G19">
-        <v>2.051471319369271</v>
+        <v>2.05147131936954</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.41340630842646</v>
+        <v>6.41340630842651</v>
       </c>
       <c r="M19">
-        <v>16.83528977339291</v>
+        <v>16.8352897733929</v>
       </c>
       <c r="N19">
-        <v>14.12172933976861</v>
+        <v>14.12172933976855</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.19863811303028</v>
+        <v>32.19863811303031</v>
       </c>
       <c r="C20">
-        <v>20.22618181541383</v>
+        <v>20.2261818154138</v>
       </c>
       <c r="D20">
-        <v>5.286033269764456</v>
+        <v>5.286033269764367</v>
       </c>
       <c r="E20">
-        <v>6.842729242912912</v>
+        <v>6.84272924291292</v>
       </c>
       <c r="F20">
-        <v>46.83965616764997</v>
+        <v>46.83965616765005</v>
       </c>
       <c r="G20">
-        <v>2.046345418700776</v>
+        <v>2.046345418701037</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.451478007820594</v>
+        <v>6.45147800782061</v>
       </c>
       <c r="M20">
-        <v>17.14364968179512</v>
+        <v>17.14364968179509</v>
       </c>
       <c r="N20">
-        <v>14.05629716798532</v>
+        <v>14.05629716798535</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.42066699095715</v>
+        <v>34.42066699095718</v>
       </c>
       <c r="C21">
-        <v>21.61642578444473</v>
+        <v>21.61642578444467</v>
       </c>
       <c r="D21">
-        <v>5.226432237536414</v>
+        <v>5.226432237536426</v>
       </c>
       <c r="E21">
-        <v>6.957648220980042</v>
+        <v>6.957648220979912</v>
       </c>
       <c r="F21">
-        <v>49.39170862395765</v>
+        <v>49.39170862395763</v>
       </c>
       <c r="G21">
         <v>2.029105966657653</v>
@@ -1347,7 +1347,7 @@
         <v>6.584430221899748</v>
       </c>
       <c r="M21">
-        <v>18.33518734108508</v>
+        <v>18.33518734108511</v>
       </c>
       <c r="N21">
         <v>13.8451709125385</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.84018605203735</v>
+        <v>35.8401860520374</v>
       </c>
       <c r="C22">
-        <v>22.50377859183412</v>
+        <v>22.50377859183407</v>
       </c>
       <c r="D22">
-        <v>5.192676331111945</v>
+        <v>5.192676331111993</v>
       </c>
       <c r="E22">
-        <v>7.034517059420511</v>
+        <v>7.034517059420438</v>
       </c>
       <c r="F22">
-        <v>51.06795844228563</v>
+        <v>51.06795844228569</v>
       </c>
       <c r="G22">
-        <v>2.017784999619515</v>
+        <v>2.017784999619653</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.675289018008594</v>
+        <v>6.675289018008581</v>
       </c>
       <c r="M22">
-        <v>19.09445036474196</v>
+        <v>19.09445036474202</v>
       </c>
       <c r="N22">
-        <v>13.71437720659469</v>
+        <v>13.71437720659468</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.08537759289561</v>
+        <v>35.08537759289545</v>
       </c>
       <c r="C23">
-        <v>22.03199343326064</v>
+        <v>22.03199343326047</v>
       </c>
       <c r="D23">
-        <v>5.210174190898412</v>
+        <v>5.210174190898459</v>
       </c>
       <c r="E23">
-        <v>6.993304629876691</v>
+        <v>6.993304629876694</v>
       </c>
       <c r="F23">
-        <v>50.17237262684309</v>
+        <v>50.1723726268429</v>
       </c>
       <c r="G23">
-        <v>2.023835015298163</v>
+        <v>2.023835015297895</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.626417993117123</v>
+        <v>6.626417993117176</v>
       </c>
       <c r="M23">
-        <v>18.69089718652436</v>
+        <v>18.69089718652423</v>
       </c>
       <c r="N23">
-        <v>13.78347713589342</v>
+        <v>13.78347713589345</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.16173146588605</v>
+        <v>32.16173146588607</v>
       </c>
       <c r="C24">
-        <v>20.20307234947882</v>
+        <v>20.20307234947889</v>
       </c>
       <c r="D24">
-        <v>5.287086288438638</v>
+        <v>5.287086288438707</v>
       </c>
       <c r="E24">
-        <v>6.840875579924345</v>
+        <v>6.84087557992448</v>
       </c>
       <c r="F24">
-        <v>46.79805126105585</v>
+        <v>46.7980512610558</v>
       </c>
       <c r="G24">
-        <v>2.046626876212164</v>
+        <v>2.046626876212031</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.449368838115001</v>
+        <v>6.449368838115088</v>
       </c>
       <c r="M24">
         <v>17.1238243155032</v>
       </c>
       <c r="N24">
-        <v>14.05985918053632</v>
+        <v>14.0598591805363</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.85247962483538</v>
+        <v>28.85247962483545</v>
       </c>
       <c r="C25">
-        <v>18.12722227178261</v>
+        <v>18.12722227178273</v>
       </c>
       <c r="D25">
-        <v>5.388662814220111</v>
+        <v>5.388662814220235</v>
       </c>
       <c r="E25">
-        <v>6.681882730759678</v>
+        <v>6.681882730759813</v>
       </c>
       <c r="F25">
-        <v>43.18161878193108</v>
+        <v>43.18161878193099</v>
       </c>
       <c r="G25">
-        <v>2.071233039711272</v>
+        <v>2.071233039711267</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.274124697405423</v>
+        <v>6.274124697405456</v>
       </c>
       <c r="M25">
-        <v>15.80156132033877</v>
+        <v>15.80156132033875</v>
       </c>
       <c r="N25">
-        <v>14.38467375564293</v>
+        <v>14.38467375564288</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.4314635397089</v>
+        <v>20.42936031291294</v>
       </c>
       <c r="C2">
-        <v>16.49887617508655</v>
+        <v>14.67148325630688</v>
       </c>
       <c r="D2">
-        <v>5.476213471232312</v>
+        <v>4.136731742031209</v>
       </c>
       <c r="E2">
-        <v>6.567557168931093</v>
+        <v>7.243563856226942</v>
       </c>
       <c r="F2">
-        <v>40.53226725460225</v>
+        <v>24.48746708092025</v>
       </c>
       <c r="G2">
-        <v>2.089605955394498</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>34.23491237234435</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.567037664974567</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.00919026478932</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.02251312420396</v>
       </c>
       <c r="L2">
-        <v>6.157412325861127</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>14.84405541289497</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.64326471548364</v>
+        <v>6.239158303535115</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.40846107365157</v>
+      </c>
+      <c r="P2">
+        <v>12.4806324738045</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.74637875345753</v>
+        <v>19.04118699099767</v>
       </c>
       <c r="C3">
-        <v>15.32829315169669</v>
+        <v>13.8287294158252</v>
       </c>
       <c r="D3">
-        <v>5.542254686067123</v>
+        <v>4.105344622710057</v>
       </c>
       <c r="E3">
-        <v>6.491028273770462</v>
+        <v>7.271219321799011</v>
       </c>
       <c r="F3">
-        <v>38.74596012247701</v>
+        <v>23.61421638564955</v>
       </c>
       <c r="G3">
-        <v>2.102314676276868</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>32.85765431118717</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.61009112106145</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.86191607221934</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.9096385202758</v>
       </c>
       <c r="L3">
-        <v>6.085496350776407</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.19001634789074</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.82933354769492</v>
+        <v>6.157437400362651</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.84458021223693</v>
+      </c>
+      <c r="P3">
+        <v>12.6623651516275</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.67791248673979</v>
+        <v>18.17598202471513</v>
       </c>
       <c r="C4">
-        <v>14.57512838326396</v>
+        <v>13.28803701673171</v>
       </c>
       <c r="D4">
-        <v>5.585779463962186</v>
+        <v>4.085777836304224</v>
       </c>
       <c r="E4">
-        <v>6.444301074834126</v>
+        <v>7.289118426972988</v>
       </c>
       <c r="F4">
-        <v>37.65502762941357</v>
+        <v>23.07643044775642</v>
       </c>
       <c r="G4">
-        <v>2.110272574839158</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>32.00396001685944</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.761046853473302</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.77605730304305</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.84764901346618</v>
       </c>
       <c r="L4">
-        <v>6.044732475346389</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.78669845841839</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.94858382217162</v>
+        <v>6.110507322239339</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.48773870545967</v>
+      </c>
+      <c r="P4">
+        <v>12.77602413812065</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.23417817522074</v>
+        <v>17.80740276484813</v>
       </c>
       <c r="C5">
-        <v>14.25937025011875</v>
+        <v>13.06790164911401</v>
       </c>
       <c r="D5">
-        <v>5.60422159093411</v>
+        <v>4.078512501733444</v>
       </c>
       <c r="E5">
-        <v>6.425298367255082</v>
+        <v>7.296519764349001</v>
       </c>
       <c r="F5">
-        <v>37.21224549964167</v>
+        <v>22.84661838978094</v>
       </c>
       <c r="G5">
-        <v>2.113558095331102</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>31.63531164301799</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.827181201369691</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.73866318336053</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.81658785454183</v>
       </c>
       <c r="L5">
-        <v>6.028953207004715</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.62206631627675</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.99839553691166</v>
+        <v>6.092879766946508</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.33812327998437</v>
+      </c>
+      <c r="P5">
+        <v>12.82271400367773</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.16000081207944</v>
+        <v>17.73785517895357</v>
       </c>
       <c r="C6">
-        <v>14.20640007409267</v>
+        <v>13.03834518753721</v>
       </c>
       <c r="D6">
-        <v>5.607325359711132</v>
+        <v>4.078262739023093</v>
       </c>
       <c r="E6">
-        <v>6.422144609858618</v>
+        <v>7.297616791623918</v>
       </c>
       <c r="F6">
-        <v>37.13883997705659</v>
+        <v>22.79555356261369</v>
       </c>
       <c r="G6">
-        <v>2.114106329616204</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>31.55051482241861</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.842297007198515</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.72818084301056</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.80226348128534</v>
       </c>
       <c r="L6">
-        <v>6.026382741512911</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.59471785438087</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.00673909847231</v>
+        <v>6.09083105921266</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.31103314855038</v>
+      </c>
+      <c r="P6">
+        <v>12.83030425126004</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.67196152997985</v>
+        <v>18.15069292277038</v>
       </c>
       <c r="C7">
-        <v>14.57090597024966</v>
+        <v>13.30476335180185</v>
       </c>
       <c r="D7">
-        <v>5.586025376875085</v>
+        <v>4.088325291921033</v>
       </c>
       <c r="E7">
-        <v>6.444044673042891</v>
+        <v>7.288836295940591</v>
       </c>
       <c r="F7">
-        <v>37.64904843658579</v>
+        <v>23.03847660688736</v>
       </c>
       <c r="G7">
-        <v>2.110316707307228</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>31.93562899843448</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.772731625212726</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.76373614625376</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.82194056692404</v>
       </c>
       <c r="L7">
-        <v>6.044516327684692</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.78447905762776</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.94925072609855</v>
+        <v>6.112518319544427</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.48006262750485</v>
+      </c>
+      <c r="P7">
+        <v>12.77618807645286</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.85754029401528</v>
+        <v>19.93682489825698</v>
       </c>
       <c r="C8">
-        <v>16.1022890712366</v>
+        <v>14.41010151737533</v>
       </c>
       <c r="D8">
-        <v>5.498339361721767</v>
+        <v>4.129565161405847</v>
       </c>
       <c r="E8">
-        <v>6.541098499594253</v>
+        <v>7.252473516831816</v>
       </c>
       <c r="F8">
-        <v>39.91528759281693</v>
+        <v>24.1426279500701</v>
       </c>
       <c r="G8">
-        <v>2.093958158892532</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>33.68200167627476</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.491785696773756</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.94207037484203</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.94885431628518</v>
       </c>
       <c r="L8">
-        <v>6.131898790032348</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>14.61898790553867</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.70635541126621</v>
+        <v>6.213235180274401</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.20918119396553</v>
+      </c>
+      <c r="P8">
+        <v>12.54258171792478</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.98932242005259</v>
+        <v>23.13267490556747</v>
       </c>
       <c r="C9">
-        <v>18.84130812940724</v>
+        <v>16.36044107519802</v>
       </c>
       <c r="D9">
-        <v>5.352273601171023</v>
+        <v>4.203169177380222</v>
       </c>
       <c r="E9">
-        <v>6.734900065963386</v>
+        <v>7.189187760310305</v>
       </c>
       <c r="F9">
-        <v>44.39756600090087</v>
+        <v>26.34247869854332</v>
       </c>
       <c r="G9">
-        <v>2.06291908188767</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>37.13080912608284</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.038262334247268</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.34892169852492</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.30307975385525</v>
       </c>
       <c r="L9">
-        <v>6.331169402914521</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>16.23660238995743</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14.27203823953026</v>
+        <v>6.43234338324924</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.557364199472</v>
+      </c>
+      <c r="P9">
+        <v>12.10037514624366</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.96676684198152</v>
+        <v>25.22245923323354</v>
       </c>
       <c r="C10">
-        <v>20.70700036892835</v>
+        <v>17.68855034683243</v>
       </c>
       <c r="D10">
-        <v>5.264566224682258</v>
+        <v>4.257207553934205</v>
       </c>
       <c r="E10">
-        <v>6.881715909322006</v>
+        <v>7.147422232121101</v>
       </c>
       <c r="F10">
-        <v>47.71151207196456</v>
+        <v>27.91542620659595</v>
       </c>
       <c r="G10">
-        <v>2.040451563899257</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>39.56741852539913</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.42428451727607</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.66466623228904</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.59142423558724</v>
       </c>
       <c r="L10">
-        <v>6.496121032193742</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.55600262988718</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.98254257969059</v>
+        <v>6.60956321777509</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.48243604043316</v>
+      </c>
+      <c r="P10">
+        <v>11.78399305966794</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.27864483749541</v>
+        <v>26.09609599582047</v>
       </c>
       <c r="C11">
-        <v>21.52762076966695</v>
+        <v>18.29256428033579</v>
       </c>
       <c r="D11">
-        <v>5.230004954034386</v>
+        <v>4.286213363928216</v>
       </c>
       <c r="E11">
-        <v>6.950106743168807</v>
+        <v>7.129252409597334</v>
       </c>
       <c r="F11">
-        <v>49.22590814289039</v>
+        <v>28.57650636120746</v>
       </c>
       <c r="G11">
-        <v>2.03022529715623</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>40.5755946416238</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.599345641609925</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.79558399812376</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.69291680447085</v>
       </c>
       <c r="L11">
-        <v>6.575588645772214</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>18.25914499816214</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.85844812410351</v>
+        <v>6.696707061170261</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.94672010786614</v>
+      </c>
+      <c r="P11">
+        <v>11.64250031308724</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.76976523770669</v>
+        <v>26.43268162877083</v>
       </c>
       <c r="C12">
-        <v>21.83469035770457</v>
+        <v>18.50453502624986</v>
       </c>
       <c r="D12">
-        <v>5.217797267196325</v>
+        <v>4.294653258310274</v>
       </c>
       <c r="E12">
-        <v>6.976300496705029</v>
+        <v>7.122717815501618</v>
       </c>
       <c r="F12">
-        <v>49.80075311205879</v>
+        <v>28.8509066799641</v>
       </c>
       <c r="G12">
-        <v>2.026344337529659</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>40.99975932488</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.663734577560891</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.85537500164257</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.75376858977869</v>
       </c>
       <c r="L12">
-        <v>6.606357766833234</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>18.52204123051341</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.81267607257869</v>
+        <v>6.728363295440563</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.13434904527909</v>
+      </c>
+      <c r="P12">
+        <v>11.58875730487441</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.66423703873829</v>
+        <v>26.36312110649878</v>
       </c>
       <c r="C13">
-        <v>21.76871488730736</v>
+        <v>18.45643281933656</v>
       </c>
       <c r="D13">
-        <v>5.220385261325906</v>
+        <v>4.292331287387823</v>
       </c>
       <c r="E13">
-        <v>6.970644888135216</v>
+        <v>7.12415015142555</v>
       </c>
       <c r="F13">
-        <v>49.67688062065429</v>
+        <v>28.79685857600106</v>
       </c>
       <c r="G13">
-        <v>2.027180684609058</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>40.91739549678174</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.64954954623881</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.84435661371417</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.74479079833152</v>
       </c>
       <c r="L13">
-        <v>6.599700294503184</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>18.46556680213573</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.82247733691841</v>
+        <v>6.721169131072817</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.09494584997512</v>
+      </c>
+      <c r="P13">
+        <v>11.60023252187169</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.31916005905745</v>
+        <v>26.12504876684175</v>
       </c>
       <c r="C14">
-        <v>21.55295511157178</v>
+        <v>18.3089579258468</v>
       </c>
       <c r="D14">
-        <v>5.228982267018862</v>
+        <v>4.286693699814901</v>
       </c>
       <c r="E14">
-        <v>6.952255378273689</v>
+        <v>7.128725492819004</v>
       </c>
       <c r="F14">
-        <v>49.27317053190585</v>
+        <v>28.60124067067532</v>
       </c>
       <c r="G14">
-        <v>2.029906226767946</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>40.61433721790436</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.604499959371541</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.8012944131321</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.69967881197188</v>
       </c>
       <c r="L14">
-        <v>6.578106231044034</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>18.28083941210856</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.85465715875907</v>
+        <v>6.699150445279725</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.96259097016301</v>
+      </c>
+      <c r="P14">
+        <v>11.63803789028702</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.10706869359531</v>
+        <v>25.97305444492582</v>
       </c>
       <c r="C15">
-        <v>21.42032810562309</v>
+        <v>18.22338021317431</v>
       </c>
       <c r="D15">
-        <v>5.234366463163965</v>
+        <v>4.284230630387984</v>
       </c>
       <c r="E15">
-        <v>6.941031908380214</v>
+        <v>7.131483786622386</v>
       </c>
       <c r="F15">
-        <v>49.02608027482477</v>
+        <v>28.47130204920568</v>
       </c>
       <c r="G15">
-        <v>2.03157434562406</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>40.41065782315125</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.577622066212126</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.77126412311257</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.66394511419702</v>
       </c>
       <c r="L15">
-        <v>6.564968630776795</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>18.16725876134488</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.87453131455473</v>
+        <v>6.686428997985702</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.87934659681296</v>
+      </c>
+      <c r="P15">
+        <v>11.66138633254694</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.88021338959899</v>
+        <v>25.11958215783129</v>
       </c>
       <c r="C16">
-        <v>20.65283504377429</v>
+        <v>17.69335577213865</v>
       </c>
       <c r="D16">
-        <v>5.266941434275644</v>
+        <v>4.263645910348969</v>
       </c>
       <c r="E16">
-        <v>6.877283968382413</v>
+        <v>7.148033833891362</v>
       </c>
       <c r="F16">
-        <v>47.61271006330471</v>
+        <v>27.78682619944286</v>
       </c>
       <c r="G16">
-        <v>2.04111913026088</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>39.34936199232935</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.418405707612257</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.62436793130695</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.51473062420626</v>
       </c>
       <c r="L16">
-        <v>6.491019994502026</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.50956329440965</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.99081562756421</v>
+        <v>6.609946134075857</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.44231197474975</v>
+      </c>
+      <c r="P16">
+        <v>11.79443587211949</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.11697502119056</v>
+        <v>24.58243076255105</v>
       </c>
       <c r="C17">
-        <v>20.17504668825015</v>
+        <v>17.3620557730768</v>
       </c>
       <c r="D17">
-        <v>5.288365869049555</v>
+        <v>4.250894390894391</v>
       </c>
       <c r="E17">
-        <v>6.838630054681058</v>
+        <v>7.158475084670847</v>
       </c>
       <c r="F17">
-        <v>46.74763288418682</v>
+        <v>27.36475889966386</v>
       </c>
       <c r="G17">
-        <v>2.046967986222684</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>38.69351239116367</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.320193814538409</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.53558944595728</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.4258844638325</v>
       </c>
       <c r="L17">
-        <v>6.446815503910037</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>17.09978060539738</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>14.06418095996793</v>
+        <v>6.563827211607679</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.20310501988695</v>
+      </c>
+      <c r="P17">
+        <v>11.87639396086149</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.673940324358</v>
+        <v>24.28241152035467</v>
       </c>
       <c r="C18">
-        <v>19.89756704766692</v>
+        <v>17.15527867969542</v>
       </c>
       <c r="D18">
-        <v>5.301183164681314</v>
+        <v>4.240989690701315</v>
       </c>
       <c r="E18">
-        <v>6.816543757942012</v>
+        <v>7.164775954214647</v>
       </c>
       <c r="F18">
-        <v>46.2506760331466</v>
+        <v>27.14764203733512</v>
       </c>
       <c r="G18">
-        <v>2.050332081312255</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>38.36170437685587</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.260822768325611</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.49476668183417</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.39716416829668</v>
       </c>
       <c r="L18">
-        <v>6.421804530468139</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>16.89478898660577</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>14.10708495396607</v>
+        <v>6.535752439593826</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.06839790009536</v>
+      </c>
+      <c r="P18">
+        <v>11.923362755352</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.5232297762689</v>
+        <v>24.16922484299134</v>
       </c>
       <c r="C19">
-        <v>19.80314882144499</v>
+        <v>17.09561466579696</v>
       </c>
       <c r="D19">
-        <v>5.305604715673837</v>
+        <v>4.239575843608793</v>
       </c>
       <c r="E19">
-        <v>6.809089069680349</v>
+        <v>7.166779578483556</v>
       </c>
       <c r="F19">
-        <v>46.08251123221612</v>
+        <v>27.053685480091</v>
       </c>
       <c r="G19">
-        <v>2.05147131936954</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>38.21280751499997</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.24266420619745</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.47351660461655</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.37109969447464</v>
       </c>
       <c r="L19">
-        <v>6.41340630842651</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>16.8352897733929</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14.12172933976855</v>
+        <v>6.527720015156923</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.01927053796039</v>
+      </c>
+      <c r="P19">
+        <v>11.93952460834605</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.19863811303031</v>
+        <v>24.64121245698826</v>
       </c>
       <c r="C20">
-        <v>20.2261818154138</v>
+        <v>17.396475034085</v>
       </c>
       <c r="D20">
-        <v>5.286033269764367</v>
+        <v>4.252057708465956</v>
       </c>
       <c r="E20">
-        <v>6.84272924291292</v>
+        <v>7.157367383932865</v>
       </c>
       <c r="F20">
-        <v>46.83965616765005</v>
+        <v>27.41182014475356</v>
       </c>
       <c r="G20">
-        <v>2.046345418701037</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>38.76716689533052</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.330458466860275</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.54575088867116</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.43691672964205</v>
       </c>
       <c r="L20">
-        <v>6.45147800782061</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>17.14364968179509</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>14.05629716798535</v>
+        <v>6.568561828026838</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.22904456757439</v>
+      </c>
+      <c r="P20">
+        <v>11.86762948998432</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.42066699095718</v>
+        <v>26.18056865962971</v>
       </c>
       <c r="C21">
-        <v>21.61642578444467</v>
+        <v>18.36702376146831</v>
       </c>
       <c r="D21">
-        <v>5.226432237536426</v>
+        <v>4.2911939262191</v>
       </c>
       <c r="E21">
-        <v>6.957648220979912</v>
+        <v>7.127193390445555</v>
       </c>
       <c r="F21">
-        <v>49.39170862395763</v>
+        <v>28.63067030950932</v>
       </c>
       <c r="G21">
-        <v>2.029105966657653</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>40.65356473184815</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.619897452966984</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.80330533020829</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.68935954488819</v>
       </c>
       <c r="L21">
-        <v>6.584430221899748</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>18.33518734108511</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.8451709125385</v>
+        <v>6.707609082476658</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>14.99689841145711</v>
+      </c>
+      <c r="P21">
+        <v>11.62743641078271</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.8401860520374</v>
+        <v>27.16114409194667</v>
       </c>
       <c r="C22">
-        <v>22.50377859183407</v>
+        <v>18.96277747754879</v>
       </c>
       <c r="D22">
-        <v>5.192676331111993</v>
+        <v>4.31274970748258</v>
       </c>
       <c r="E22">
-        <v>7.034517059420438</v>
+        <v>7.108678659907632</v>
       </c>
       <c r="F22">
-        <v>51.06795844228569</v>
+        <v>29.45526906260259</v>
       </c>
       <c r="G22">
-        <v>2.017784999619653</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>41.93339507744926</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.804519659039925</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.98948061476924</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.89322018001423</v>
       </c>
       <c r="L22">
-        <v>6.675289018008581</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>19.09445036474202</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.71437720659468</v>
+        <v>6.798529986187661</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.5404549604698</v>
+      </c>
+      <c r="P22">
+        <v>11.47080173565757</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.08537759289545</v>
+        <v>26.65923383031691</v>
       </c>
       <c r="C23">
-        <v>22.03199343326047</v>
+        <v>18.62912392760792</v>
       </c>
       <c r="D23">
-        <v>5.210174190898459</v>
+        <v>4.29785758306425</v>
       </c>
       <c r="E23">
-        <v>6.993304629876694</v>
+        <v>7.118686142890997</v>
       </c>
       <c r="F23">
-        <v>50.1723726268429</v>
+        <v>29.04947198576778</v>
       </c>
       <c r="G23">
-        <v>2.023835015297895</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>41.31147694438538</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.703937171689455</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.90246285381981</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.81186657803693</v>
       </c>
       <c r="L23">
-        <v>6.626417993117176</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.69089718652423</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.78347713589345</v>
+        <v>6.747366232997895</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.25802951042706</v>
+      </c>
+      <c r="P23">
+        <v>11.55368585745927</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.16173146588607</v>
+        <v>24.64385125473905</v>
       </c>
       <c r="C24">
-        <v>20.20307234947889</v>
+        <v>17.3517196086582</v>
       </c>
       <c r="D24">
-        <v>5.287086288438707</v>
+        <v>4.246190449035241</v>
       </c>
       <c r="E24">
-        <v>6.84087557992448</v>
+        <v>7.158265955154218</v>
       </c>
       <c r="F24">
-        <v>46.7980512610558</v>
+        <v>27.44592604631242</v>
       </c>
       <c r="G24">
-        <v>2.046626876212031</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>38.8326458916974</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.321172798971869</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.56170218983857</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.47713474826989</v>
       </c>
       <c r="L24">
-        <v>6.449368838115088</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>17.1238243155032</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>14.0598591805363</v>
+        <v>6.562534570873522</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.22626838967933</v>
+      </c>
+      <c r="P24">
+        <v>11.87091625055222</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.85247962483545</v>
+        <v>22.28172512414359</v>
       </c>
       <c r="C25">
-        <v>18.12722227178273</v>
+        <v>15.88317313967531</v>
       </c>
       <c r="D25">
-        <v>5.388662814220235</v>
+        <v>4.188583672504986</v>
       </c>
       <c r="E25">
-        <v>6.681882730759813</v>
+        <v>7.205006460680385</v>
       </c>
       <c r="F25">
-        <v>43.18161878193099</v>
+        <v>25.69460615172102</v>
       </c>
       <c r="G25">
-        <v>2.071233039711267</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>36.10691286124916</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.897146099578563</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.21444531134158</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.1557564287008</v>
       </c>
       <c r="L25">
-        <v>6.274124697405456</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>15.80156132033875</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.38467375564288</v>
+        <v>6.37425397354545</v>
       </c>
       <c r="O25">
+        <v>13.1940827399302</v>
+      </c>
+      <c r="P25">
+        <v>12.21862486786612</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.42936031291294</v>
+        <v>19.90134241766761</v>
       </c>
       <c r="C2">
-        <v>14.67148325630688</v>
+        <v>15.04699376736077</v>
       </c>
       <c r="D2">
-        <v>4.136731742031209</v>
+        <v>4.197866314172304</v>
       </c>
       <c r="E2">
-        <v>7.243563856226942</v>
+        <v>7.125665354143627</v>
       </c>
       <c r="F2">
-        <v>24.48746708092025</v>
+        <v>23.41262262155469</v>
       </c>
       <c r="G2">
-        <v>34.23491237234435</v>
+        <v>31.80271114109934</v>
       </c>
       <c r="I2">
-        <v>2.567037664974567</v>
+        <v>2.614955512314952</v>
       </c>
       <c r="J2">
-        <v>11.00919026478932</v>
+        <v>11.08119717468933</v>
       </c>
       <c r="K2">
-        <v>17.02251312420396</v>
+        <v>16.09346476107623</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.69817160834665</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.2429011886776</v>
       </c>
       <c r="N2">
-        <v>6.239158303535115</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.40846107365157</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.4806324738045</v>
+        <v>6.334841563269627</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.21959378078409</v>
+      </c>
+      <c r="R2">
+        <v>12.41355203626522</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.04118699099767</v>
+        <v>18.58985011589763</v>
       </c>
       <c r="C3">
-        <v>13.8287294158252</v>
+        <v>14.12298193594656</v>
       </c>
       <c r="D3">
-        <v>4.105344622710057</v>
+        <v>4.133582951491584</v>
       </c>
       <c r="E3">
-        <v>7.271219321799011</v>
+        <v>7.153042242787346</v>
       </c>
       <c r="F3">
-        <v>23.61421638564955</v>
+        <v>22.64525256874749</v>
       </c>
       <c r="G3">
-        <v>32.85765431118717</v>
+        <v>30.62052156074837</v>
       </c>
       <c r="I3">
-        <v>2.61009112106145</v>
+        <v>2.533126215968543</v>
       </c>
       <c r="J3">
-        <v>10.86191607221934</v>
+        <v>10.93191409465951</v>
       </c>
       <c r="K3">
-        <v>16.9096385202758</v>
+        <v>16.05255480724883</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.77415014887245</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.08985689014037</v>
       </c>
       <c r="N3">
-        <v>6.157437400362651</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.84458021223693</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.6623651516275</v>
+        <v>6.245926277974119</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.66730416136362</v>
+      </c>
+      <c r="R3">
+        <v>12.56837469763229</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.17598202471513</v>
+        <v>17.73332156225201</v>
       </c>
       <c r="C4">
-        <v>13.28803701673171</v>
+        <v>13.52886824637813</v>
       </c>
       <c r="D4">
-        <v>4.085777836304224</v>
+        <v>4.093596963691605</v>
       </c>
       <c r="E4">
-        <v>7.289118426972988</v>
+        <v>7.170907187192582</v>
       </c>
       <c r="F4">
-        <v>23.07643044775642</v>
+        <v>22.17150269326308</v>
       </c>
       <c r="G4">
-        <v>32.00396001685944</v>
+        <v>29.89128259871126</v>
       </c>
       <c r="I4">
-        <v>2.761046853473302</v>
+        <v>2.663574272371787</v>
       </c>
       <c r="J4">
-        <v>10.77605730304305</v>
+        <v>10.84083035518162</v>
       </c>
       <c r="K4">
-        <v>16.84764901346618</v>
+        <v>16.03249422447329</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.81920226302826</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.02102267587422</v>
       </c>
       <c r="N4">
-        <v>6.110507322239339</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.48773870545967</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.77602413812065</v>
+        <v>6.194594353246509</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.31677525429921</v>
+      </c>
+      <c r="R4">
+        <v>12.66598530739226</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.80740276484813</v>
+        <v>17.36522109068509</v>
       </c>
       <c r="C5">
-        <v>13.06790164911401</v>
+        <v>13.28621865100371</v>
       </c>
       <c r="D5">
-        <v>4.078512501733444</v>
+        <v>4.078091874843756</v>
       </c>
       <c r="E5">
-        <v>7.296519764349001</v>
+        <v>7.178391655516497</v>
       </c>
       <c r="F5">
-        <v>22.84661838978094</v>
+        <v>21.96776094625927</v>
       </c>
       <c r="G5">
-        <v>31.63531164301799</v>
+        <v>29.57479267240783</v>
       </c>
       <c r="I5">
-        <v>2.827181201369691</v>
+        <v>2.721768292922772</v>
       </c>
       <c r="J5">
-        <v>10.73866318336053</v>
+        <v>10.80044868938906</v>
       </c>
       <c r="K5">
-        <v>16.81658785454183</v>
+        <v>16.01839854492355</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.8310440931141</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.994639735945974</v>
       </c>
       <c r="N5">
-        <v>6.092879766946508</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.33812327998437</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.82271400367773</v>
+        <v>6.175168893648637</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.16954841958721</v>
+      </c>
+      <c r="R5">
+        <v>12.7064755531387</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.73785517895357</v>
+        <v>17.29586670664001</v>
       </c>
       <c r="C6">
-        <v>13.03834518753721</v>
+        <v>13.25303493681582</v>
       </c>
       <c r="D6">
-        <v>4.078262739023093</v>
+        <v>4.076631309899314</v>
       </c>
       <c r="E6">
-        <v>7.297616791623918</v>
+        <v>7.179581410661486</v>
       </c>
       <c r="F6">
-        <v>22.79555356261369</v>
+        <v>21.92135709936663</v>
       </c>
       <c r="G6">
-        <v>31.55051482241861</v>
+        <v>29.49918975143893</v>
       </c>
       <c r="I6">
-        <v>2.842297007198515</v>
+        <v>2.73621980857364</v>
       </c>
       <c r="J6">
-        <v>10.72818084301056</v>
+        <v>10.78956496921494</v>
       </c>
       <c r="K6">
-        <v>16.80226348128534</v>
+        <v>16.00740695723681</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.82552774084331</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.984877027859964</v>
       </c>
       <c r="N6">
-        <v>6.09083105921266</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.31103314855038</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.83030425126004</v>
+        <v>6.172805531388007</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.14287896878669</v>
+      </c>
+      <c r="R6">
+        <v>12.71332915920269</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.15069292277038</v>
+        <v>17.69995572786461</v>
       </c>
       <c r="C7">
-        <v>13.30476335180185</v>
+        <v>13.53241708772325</v>
       </c>
       <c r="D7">
-        <v>4.088325291921033</v>
+        <v>4.098687175281525</v>
       </c>
       <c r="E7">
-        <v>7.288836295940591</v>
+        <v>7.170639078386849</v>
       </c>
       <c r="F7">
-        <v>23.03847660688736</v>
+        <v>22.11186483575055</v>
       </c>
       <c r="G7">
-        <v>31.93562899843448</v>
+        <v>29.90909882598396</v>
       </c>
       <c r="I7">
-        <v>2.772731625212726</v>
+        <v>2.677706364306088</v>
       </c>
       <c r="J7">
-        <v>10.76373614625376</v>
+        <v>10.77508313321282</v>
       </c>
       <c r="K7">
-        <v>16.82194056692404</v>
+        <v>15.99826309571181</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.79068979327303</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.997532347402323</v>
       </c>
       <c r="N7">
-        <v>6.112518319544427</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.48006262750485</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.77618807645286</v>
+        <v>6.196269641189279</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.30584158177798</v>
+      </c>
+      <c r="R7">
+        <v>12.6671172882714</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.93682489825698</v>
+        <v>19.40918014227096</v>
       </c>
       <c r="C8">
-        <v>14.41010151737533</v>
+        <v>14.71762852908728</v>
       </c>
       <c r="D8">
-        <v>4.129565161405847</v>
+        <v>4.187505190356521</v>
       </c>
       <c r="E8">
-        <v>7.252473516831816</v>
+        <v>7.134058063816033</v>
       </c>
       <c r="F8">
-        <v>24.1426279500701</v>
+        <v>23.03237385389815</v>
       </c>
       <c r="G8">
-        <v>33.68200167627476</v>
+        <v>31.58539062784616</v>
       </c>
       <c r="I8">
-        <v>2.491785696773756</v>
+        <v>2.549192074092431</v>
       </c>
       <c r="J8">
-        <v>10.94207037484203</v>
+        <v>10.83984993447854</v>
       </c>
       <c r="K8">
-        <v>16.94885431628518</v>
+        <v>16.01347418668459</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.67305820366672</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.13720906076063</v>
       </c>
       <c r="N8">
-        <v>6.213235180274401</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.20918119396553</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.54258171792478</v>
+        <v>6.305473736469329</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.01387974024079</v>
+      </c>
+      <c r="R8">
+        <v>12.46860503521484</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.13267490556747</v>
+        <v>22.42060995758219</v>
       </c>
       <c r="C9">
-        <v>16.36044107519802</v>
+        <v>16.84467559010829</v>
       </c>
       <c r="D9">
-        <v>4.203169177380222</v>
+        <v>4.343409866747773</v>
       </c>
       <c r="E9">
-        <v>7.189187760310305</v>
+        <v>7.071701641161655</v>
       </c>
       <c r="F9">
-        <v>26.34247869854332</v>
+        <v>24.95048927462075</v>
       </c>
       <c r="G9">
-        <v>37.13080912608284</v>
+        <v>34.62247643292304</v>
       </c>
       <c r="I9">
-        <v>3.038262334247268</v>
+        <v>3.019356952424687</v>
       </c>
       <c r="J9">
-        <v>11.34892169852492</v>
+        <v>11.18645207342791</v>
       </c>
       <c r="K9">
-        <v>17.30307975385525</v>
+        <v>16.16547785932723</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.49428131449055</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.66355008598538</v>
       </c>
       <c r="N9">
-        <v>6.43234338324924</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.557364199472</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.10037514624366</v>
+        <v>6.542141077166754</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.32712711382346</v>
+      </c>
+      <c r="R9">
+        <v>12.09713179828481</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.22245923323354</v>
+        <v>24.34604812658946</v>
       </c>
       <c r="C10">
-        <v>17.68855034683243</v>
+        <v>18.22496431909336</v>
       </c>
       <c r="D10">
-        <v>4.257207553934205</v>
+        <v>4.47019382406942</v>
       </c>
       <c r="E10">
-        <v>7.147422232121101</v>
+        <v>7.030146711798325</v>
       </c>
       <c r="F10">
-        <v>27.91542620659595</v>
+        <v>26.20321934130659</v>
       </c>
       <c r="G10">
-        <v>39.56741852539913</v>
+        <v>37.19452435899825</v>
       </c>
       <c r="I10">
-        <v>3.42428451727607</v>
+        <v>3.348403013160578</v>
       </c>
       <c r="J10">
-        <v>11.66466623228904</v>
+        <v>11.14898945742897</v>
       </c>
       <c r="K10">
-        <v>17.59142423558724</v>
+        <v>16.23830622680004</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.30765875968368</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.10283465898416</v>
       </c>
       <c r="N10">
-        <v>6.60956321777509</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.48243604043316</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.78399305966794</v>
+        <v>6.730133554755056</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.20698309142437</v>
+      </c>
+      <c r="R10">
+        <v>11.84145277902351</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.09609599582047</v>
+        <v>25.08350583747009</v>
       </c>
       <c r="C11">
-        <v>18.29256428033579</v>
+        <v>18.74749991812542</v>
       </c>
       <c r="D11">
-        <v>4.286213363928216</v>
+        <v>4.557303383789627</v>
       </c>
       <c r="E11">
-        <v>7.129252409597334</v>
+        <v>7.010917786530964</v>
       </c>
       <c r="F11">
-        <v>28.57650636120746</v>
+        <v>26.52510615320683</v>
       </c>
       <c r="G11">
-        <v>40.5755946416238</v>
+        <v>38.97408879746127</v>
       </c>
       <c r="I11">
-        <v>3.599345641609925</v>
+        <v>3.493738212115881</v>
       </c>
       <c r="J11">
-        <v>11.79558399812376</v>
+        <v>10.6236653795532</v>
       </c>
       <c r="K11">
-        <v>17.69291680447085</v>
+        <v>16.14171574325797</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.12849882121392</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.20886084916715</v>
       </c>
       <c r="N11">
-        <v>6.696707061170261</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.94672010786614</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.64250031308724</v>
+        <v>6.818943662274259</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.59486481071099</v>
+      </c>
+      <c r="R11">
+        <v>11.74003836387759</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.43268162877083</v>
+        <v>25.36116471424897</v>
       </c>
       <c r="C12">
-        <v>18.50453502624986</v>
+        <v>18.91661757959595</v>
       </c>
       <c r="D12">
-        <v>4.294653258310274</v>
+        <v>4.590541193022575</v>
       </c>
       <c r="E12">
-        <v>7.122717815501618</v>
+        <v>7.003893496240496</v>
       </c>
       <c r="F12">
-        <v>28.8509066799641</v>
+        <v>26.64726149005596</v>
       </c>
       <c r="G12">
-        <v>40.99975932488</v>
+        <v>39.7721802880575</v>
       </c>
       <c r="I12">
-        <v>3.663734577560891</v>
+        <v>3.545291214388418</v>
       </c>
       <c r="J12">
-        <v>11.85537500164257</v>
+        <v>10.37771177996613</v>
       </c>
       <c r="K12">
-        <v>17.75376858977869</v>
+        <v>16.11293209894501</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.06605808967879</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.25694438471231</v>
       </c>
       <c r="N12">
-        <v>6.728363295440563</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>15.13434904527909</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.58875730487441</v>
+        <v>6.850841087794766</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.75702803695934</v>
+      </c>
+      <c r="R12">
+        <v>11.70219665813173</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.36312110649878</v>
+        <v>25.30452159704762</v>
       </c>
       <c r="C13">
-        <v>18.45643281933656</v>
+        <v>18.87824690537819</v>
       </c>
       <c r="D13">
-        <v>4.292331287387823</v>
+        <v>4.582626765662163</v>
       </c>
       <c r="E13">
-        <v>7.12415015142555</v>
+        <v>7.005391977654379</v>
       </c>
       <c r="F13">
-        <v>28.79685857600106</v>
+        <v>26.62686075183827</v>
       </c>
       <c r="G13">
-        <v>40.91739549678174</v>
+        <v>39.60539473486686</v>
       </c>
       <c r="I13">
-        <v>3.64954954623881</v>
+        <v>3.533673053682714</v>
       </c>
       <c r="J13">
-        <v>11.84435661371417</v>
+        <v>10.43470330904644</v>
       </c>
       <c r="K13">
-        <v>17.74479079833152</v>
+        <v>16.12351212283989</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.08249745316047</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.25018223254085</v>
       </c>
       <c r="N13">
-        <v>6.721169131072817</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>15.09494584997512</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.60023252187169</v>
+        <v>6.843623480291154</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.7232172963055</v>
+      </c>
+      <c r="R13">
+        <v>11.70991316032778</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.12504876684175</v>
+        <v>25.10771494827091</v>
       </c>
       <c r="C14">
-        <v>18.3089579258468</v>
+        <v>18.76059436461997</v>
       </c>
       <c r="D14">
-        <v>4.286693699814901</v>
+        <v>4.559715151175932</v>
       </c>
       <c r="E14">
-        <v>7.128725492819004</v>
+        <v>7.010333271563401</v>
       </c>
       <c r="F14">
-        <v>28.60124067067532</v>
+        <v>26.53770621463101</v>
       </c>
       <c r="G14">
-        <v>40.61433721790436</v>
+        <v>39.04184651120516</v>
       </c>
       <c r="I14">
-        <v>3.604499959371541</v>
+        <v>3.497752105750562</v>
       </c>
       <c r="J14">
-        <v>11.8012944131321</v>
+        <v>10.60522093628112</v>
       </c>
       <c r="K14">
-        <v>17.69967881197188</v>
+        <v>16.14122721004964</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.12465132567976</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.21435401293003</v>
       </c>
       <c r="N14">
-        <v>6.699150445279725</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>14.96259097016301</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.63803789028702</v>
+        <v>6.821419420670146</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.60869013588691</v>
+      </c>
+      <c r="R14">
+        <v>11.73674413606711</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.97305444492582</v>
+        <v>24.98025481177294</v>
       </c>
       <c r="C15">
-        <v>18.22338021317431</v>
+        <v>18.6917983132676</v>
       </c>
       <c r="D15">
-        <v>4.284230630387984</v>
+        <v>4.547290290324677</v>
       </c>
       <c r="E15">
-        <v>7.131483786622386</v>
+        <v>7.013404354681276</v>
       </c>
       <c r="F15">
-        <v>28.47130204920568</v>
+        <v>26.47030760509178</v>
       </c>
       <c r="G15">
-        <v>40.41065782315125</v>
+        <v>38.68980910314674</v>
       </c>
       <c r="I15">
-        <v>3.577622066212126</v>
+        <v>3.47684925480983</v>
       </c>
       <c r="J15">
-        <v>11.77126412311257</v>
+        <v>10.69924957409504</v>
       </c>
       <c r="K15">
-        <v>17.66394511419702</v>
+        <v>16.14290475615086</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.14415067535001</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.18496563524188</v>
       </c>
       <c r="N15">
-        <v>6.686428997985702</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>14.87934659681296</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.66138633254694</v>
+        <v>6.808510164620298</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.53601941255792</v>
+      </c>
+      <c r="R15">
+        <v>11.75407356831793</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.11958215783129</v>
+        <v>24.25244424482074</v>
       </c>
       <c r="C16">
-        <v>17.69335577213865</v>
+        <v>18.23391613171776</v>
       </c>
       <c r="D16">
-        <v>4.263645910348969</v>
+        <v>4.474699449098764</v>
       </c>
       <c r="E16">
-        <v>7.148033833891362</v>
+        <v>7.031457121529335</v>
       </c>
       <c r="F16">
-        <v>27.78682619944286</v>
+        <v>26.09634611377215</v>
       </c>
       <c r="G16">
-        <v>39.34936199232935</v>
+        <v>36.94107489613079</v>
       </c>
       <c r="I16">
-        <v>3.418405707612257</v>
+        <v>3.347907577232253</v>
       </c>
       <c r="J16">
-        <v>11.62436793130695</v>
+        <v>11.14648030772245</v>
       </c>
       <c r="K16">
-        <v>17.51473062420626</v>
+        <v>16.17804065838135</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.27280269201758</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.04111331635019</v>
       </c>
       <c r="N16">
-        <v>6.609946134075857</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>14.44231197474975</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>11.79443587211949</v>
+        <v>6.730212317047528</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.16998795222876</v>
+      </c>
+      <c r="R16">
+        <v>11.85300833917235</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.58243076255105</v>
+        <v>23.77986308064766</v>
       </c>
       <c r="C17">
-        <v>17.3620557730768</v>
+        <v>17.92534510889589</v>
       </c>
       <c r="D17">
-        <v>4.250894390894391</v>
+        <v>4.435373092234721</v>
       </c>
       <c r="E17">
-        <v>7.158475084670847</v>
+        <v>7.042670724171936</v>
       </c>
       <c r="F17">
-        <v>27.36475889966386</v>
+        <v>25.82422241104979</v>
       </c>
       <c r="G17">
-        <v>38.69351239116367</v>
+        <v>36.01038381417078</v>
       </c>
       <c r="I17">
-        <v>3.320193814538409</v>
+        <v>3.267180538380146</v>
       </c>
       <c r="J17">
-        <v>11.53558944595728</v>
+        <v>11.31887313204287</v>
       </c>
       <c r="K17">
-        <v>17.4258844638325</v>
+        <v>16.17993156364879</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.33728400656015</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.9397608521597</v>
       </c>
       <c r="N17">
-        <v>6.563827211607679</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>14.20310501988695</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>11.87639396086149</v>
+        <v>6.682268685137623</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.95236798873807</v>
+      </c>
+      <c r="R17">
+        <v>11.91664194787346</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.28241152035467</v>
+        <v>23.51193606624443</v>
       </c>
       <c r="C18">
-        <v>17.15527867969542</v>
+        <v>17.72344841734489</v>
       </c>
       <c r="D18">
-        <v>4.240989690701315</v>
+        <v>4.411629675801774</v>
       </c>
       <c r="E18">
-        <v>7.164775954214647</v>
+        <v>7.049078331787083</v>
       </c>
       <c r="F18">
-        <v>27.14764203733512</v>
+        <v>25.67776947570448</v>
       </c>
       <c r="G18">
-        <v>38.36170437685587</v>
+        <v>35.5730083190241</v>
       </c>
       <c r="I18">
-        <v>3.260822768325611</v>
+        <v>3.216192824916903</v>
       </c>
       <c r="J18">
-        <v>11.49476668183417</v>
+        <v>11.38939991356684</v>
       </c>
       <c r="K18">
-        <v>17.39716416829668</v>
+        <v>16.19394395565055</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.38321932169677</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.89331872337298</v>
       </c>
       <c r="N18">
-        <v>6.535752439593826</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>14.06839790009536</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.923362755352</v>
+        <v>6.652940936983577</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.82776787005523</v>
+      </c>
+      <c r="R18">
+        <v>11.95291467047995</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.16922484299134</v>
+        <v>23.40913822532928</v>
       </c>
       <c r="C19">
-        <v>17.09561466579696</v>
+        <v>17.66420050585666</v>
       </c>
       <c r="D19">
-        <v>4.239575843608793</v>
+        <v>4.406141032413206</v>
       </c>
       <c r="E19">
-        <v>7.166779578483556</v>
+        <v>7.05125427894454</v>
       </c>
       <c r="F19">
-        <v>27.053685480091</v>
+        <v>25.60586522910463</v>
       </c>
       <c r="G19">
-        <v>38.21280751499997</v>
+        <v>35.39835059251072</v>
       </c>
       <c r="I19">
-        <v>3.24266420619745</v>
+        <v>3.201748520762825</v>
       </c>
       <c r="J19">
-        <v>11.47351660461655</v>
+        <v>11.39985641762776</v>
       </c>
       <c r="K19">
-        <v>17.37109969447464</v>
+        <v>16.18220578045171</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.38698507890954</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.86432601146811</v>
       </c>
       <c r="N19">
-        <v>6.527720015156923</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>14.01927053796039</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.93952460834605</v>
+        <v>6.64441222672406</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.78177626742907</v>
+      </c>
+      <c r="R19">
+        <v>11.96633360686197</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.64121245698826</v>
+        <v>23.83221741088824</v>
       </c>
       <c r="C20">
-        <v>17.396475034085</v>
+        <v>17.95815788701525</v>
       </c>
       <c r="D20">
-        <v>4.252057708465956</v>
+        <v>4.439140374087894</v>
       </c>
       <c r="E20">
-        <v>7.157367383932865</v>
+        <v>7.041476536113168</v>
       </c>
       <c r="F20">
-        <v>27.41182014475356</v>
+        <v>25.85678679317115</v>
       </c>
       <c r="G20">
-        <v>38.76716689533052</v>
+        <v>36.10765470750612</v>
       </c>
       <c r="I20">
-        <v>3.330458466860275</v>
+        <v>3.275527435633944</v>
       </c>
       <c r="J20">
-        <v>11.54575088867116</v>
+        <v>11.30512733405923</v>
       </c>
       <c r="K20">
-        <v>17.43691672964205</v>
+        <v>16.18200893378525</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.33206450757378</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.95229371640276</v>
       </c>
       <c r="N20">
-        <v>6.568561828026838</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.22904456757439</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.86762948998432</v>
+        <v>6.687226465616626</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.97622831989514</v>
+      </c>
+      <c r="R20">
+        <v>11.90966239808838</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.18056865962971</v>
+        <v>25.12870118849816</v>
       </c>
       <c r="C21">
-        <v>18.36702376146831</v>
+        <v>18.77384309805816</v>
       </c>
       <c r="D21">
-        <v>4.2911939262191</v>
+        <v>4.578523982395273</v>
       </c>
       <c r="E21">
-        <v>7.127193390445555</v>
+        <v>7.008456288585847</v>
       </c>
       <c r="F21">
-        <v>28.63067030950932</v>
+        <v>26.46717082396976</v>
       </c>
       <c r="G21">
-        <v>40.65356473184815</v>
+        <v>39.40934388222483</v>
       </c>
       <c r="I21">
-        <v>3.619897452966984</v>
+        <v>3.509654930703445</v>
       </c>
       <c r="J21">
-        <v>11.80330533020829</v>
+        <v>10.37596195627591</v>
       </c>
       <c r="K21">
-        <v>17.68935954488819</v>
+        <v>16.07892138962782</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.07316489845422</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.17718458337782</v>
       </c>
       <c r="N21">
-        <v>6.707609082476658</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>14.99689841145711</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.62743641078271</v>
+        <v>6.82883971050095</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.62771518787974</v>
+      </c>
+      <c r="R21">
+        <v>11.73388598144215</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.16114409194667</v>
+        <v>25.94763544087851</v>
       </c>
       <c r="C22">
-        <v>18.96277747754879</v>
+        <v>19.25986970278121</v>
       </c>
       <c r="D22">
-        <v>4.31274970748258</v>
+        <v>4.669303546283115</v>
       </c>
       <c r="E22">
-        <v>7.108678659907632</v>
+        <v>6.989384004302035</v>
       </c>
       <c r="F22">
-        <v>29.45526906260259</v>
+        <v>26.87510335857728</v>
       </c>
       <c r="G22">
-        <v>41.93339507744926</v>
+        <v>41.67706279129402</v>
       </c>
       <c r="I22">
-        <v>3.804519659039925</v>
+        <v>3.656853154688056</v>
       </c>
       <c r="J22">
-        <v>11.98948061476924</v>
+        <v>9.743996505846015</v>
       </c>
       <c r="K22">
-        <v>17.89322018001423</v>
+        <v>16.0306561449827</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.91591968788713</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.34936978016497</v>
       </c>
       <c r="N22">
-        <v>6.798529986187661</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.5404549604698</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.47080173565757</v>
+        <v>6.920714041402635</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.1015682992235</v>
+      </c>
+      <c r="R22">
+        <v>11.6228045343732</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.65923383031691</v>
+        <v>25.54740788644976</v>
       </c>
       <c r="C23">
-        <v>18.62912392760792</v>
+        <v>19.01026111318696</v>
       </c>
       <c r="D23">
-        <v>4.29785758306425</v>
+        <v>4.61022595961841</v>
       </c>
       <c r="E23">
-        <v>7.118686142890997</v>
+        <v>6.999506823565985</v>
       </c>
       <c r="F23">
-        <v>29.04947198576778</v>
+        <v>26.74039359695004</v>
       </c>
       <c r="G23">
-        <v>41.31147694438538</v>
+        <v>40.34739978067013</v>
       </c>
       <c r="I23">
-        <v>3.703937171689455</v>
+        <v>3.576136442599227</v>
       </c>
       <c r="J23">
-        <v>11.90246285381981</v>
+        <v>10.21108568023345</v>
       </c>
       <c r="K23">
-        <v>17.81186657803693</v>
+        <v>16.1079164665124</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.03493773420923</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.29975262628045</v>
       </c>
       <c r="N23">
-        <v>6.747366232997895</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.25802951042706</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.55368585745927</v>
+        <v>6.869911912823716</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.8632761998531</v>
+      </c>
+      <c r="R23">
+        <v>11.67682073038387</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.64385125473905</v>
+        <v>23.83690123622662</v>
       </c>
       <c r="C24">
-        <v>17.3517196086582</v>
+        <v>17.91377934066577</v>
       </c>
       <c r="D24">
-        <v>4.246190449035241</v>
+        <v>4.431229328546235</v>
       </c>
       <c r="E24">
-        <v>7.158265955154218</v>
+        <v>7.041979234123821</v>
       </c>
       <c r="F24">
-        <v>27.44592604631242</v>
+        <v>25.89573005448386</v>
       </c>
       <c r="G24">
-        <v>38.8326458916974</v>
+        <v>36.16003712598432</v>
       </c>
       <c r="I24">
-        <v>3.321172798971869</v>
+        <v>3.26465737195334</v>
       </c>
       <c r="J24">
-        <v>11.56170218983857</v>
+        <v>11.33040885660215</v>
       </c>
       <c r="K24">
-        <v>17.47713474826989</v>
+        <v>16.22300890038158</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.36405964876675</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.98108957256355</v>
       </c>
       <c r="N24">
-        <v>6.562534570873522</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.22626838967933</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.87091625055222</v>
+        <v>6.681186399774437</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.97415511954666</v>
+      </c>
+      <c r="R24">
+        <v>11.91002241940192</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.28172512414359</v>
+        <v>21.62908617896162</v>
       </c>
       <c r="C25">
-        <v>15.88317313967531</v>
+        <v>16.33929587298035</v>
       </c>
       <c r="D25">
-        <v>4.188583672504986</v>
+        <v>4.304395358236183</v>
       </c>
       <c r="E25">
-        <v>7.205006460680385</v>
+        <v>7.087877858298882</v>
       </c>
       <c r="F25">
-        <v>25.69460615172102</v>
+        <v>24.41046461178093</v>
       </c>
       <c r="G25">
-        <v>36.10691286124916</v>
+        <v>33.59982106861364</v>
       </c>
       <c r="I25">
-        <v>2.897146099578563</v>
+        <v>2.901504368659864</v>
       </c>
       <c r="J25">
-        <v>11.21444531134158</v>
+        <v>11.14621086872046</v>
       </c>
       <c r="K25">
-        <v>17.1557564287008</v>
+        <v>16.09215532671276</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.5237946147801</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.47942556681518</v>
       </c>
       <c r="N25">
-        <v>6.37425397354545</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.1940827399302</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.21862486786612</v>
+        <v>6.479666217579755</v>
       </c>
       <c r="Q25">
+        <v>12.97841703716488</v>
+      </c>
+      <c r="R25">
+        <v>12.19673902765792</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
